--- a/rooftop-runners.xlsx
+++ b/rooftop-runners.xlsx
@@ -1,32 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auto1\go\src\github.com\eejai42\roast-and-toast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29160065-2C05-4179-BA2B-034A79E65334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9237F90-EB26-4423-B572-D78FE8BB58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WEapons" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Levels" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -34,38 +42,128 @@
     <t>Description</t>
   </si>
   <si>
+    <t>Image URL</t>
+  </si>
+  <si>
     <t>Katana</t>
   </si>
   <si>
-    <t>A sword….</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>whatever</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>City Center</t>
-  </si>
-  <si>
-    <t>Whatever</t>
+    <t>Nunchaku</t>
+  </si>
+  <si>
+    <t>Kunai</t>
+  </si>
+  <si>
+    <t>Shuriken</t>
+  </si>
+  <si>
+    <t>Kusarigama</t>
+  </si>
+  <si>
+    <t>A traditional Japanese sword known for its sharpness and strength, used by samurai and ninjas.</t>
+  </si>
+  <si>
+    <t>A martial arts weapon consisting of two sticks connected by a short chain or rope, used for striking and entangling.</t>
+  </si>
+  <si>
+    <t>A tool originally meant for farming, but adapted by ninjas as a multi-purpose weapon, commonly used for throwing and stabbing.</t>
+  </si>
+  <si>
+    <t>A star-shaped throwing weapon that ninjas used for distraction and at a distance to harm enemies.</t>
+  </si>
+  <si>
+    <t>A weapon consisting of a sickle attached to a chain, allowing for both close and ranged attacks.</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/6f/Katana-Dresden.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ebayimg.com/images/g/NaQAAOSwfjZm2AdC/s-l1600.webp</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/d/d1/Kunai05.jpg</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/9/95/Shaken.JPG</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/6/68/Kusarigama-crop.jpg</t>
+  </si>
+  <si>
+    <t>Level Number</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Skybound</t>
+  </si>
+  <si>
+    <t>The Depths</t>
+  </si>
+  <si>
+    <t>Rail Rush</t>
+  </si>
+  <si>
+    <t>High above the bustling metropolis, combatants leap between the rooftops of towering skyscrapers. Each rooftop presents its own challenges and opportunities for tactical advantage.</t>
+  </si>
+  <si>
+    <t>Deep beneath the earth, the air is thick and heavy. Echoes of past skirmishes reverberate off the cold, damp stone walls. The labyrinthine tunnels twist and turn, hiding dangers and treasures alike.</t>
+  </si>
+  <si>
+    <t>Speed is the name of the game as fighters find themselves atop a swiftly moving city train. Every moment is a test of reflexes.</t>
+  </si>
+  <si>
+    <t>Rooftop</t>
+  </si>
+  <si>
+    <t>Underground</t>
+  </si>
+  <si>
+    <t>City Train</t>
+  </si>
+  <si>
+    <t>1OYsOoojlBToCdrTFbeaAwrVod1KOz2Vo</t>
+  </si>
+  <si>
+    <t>14viKK9_QAxCJ4MAlqi2Zha-uv7TAIVdX</t>
+  </si>
+  <si>
+    <t>1ydQbxC2yyHlFfpcNYEK4n7WrRITyIVnb</t>
+  </si>
+  <si>
+    <t>LocationUrl</t>
+  </si>
+  <si>
+    <t>GoogleKey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,18 +182,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -108,9 +244,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -118,44 +254,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -185,12 +321,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -220,7 +356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -229,217 +365,354 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA7B6DB-24AA-4428-900B-43713449BD58}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="179" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="95.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F2)</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1ydQbxC2yyHlFfpcNYEK4n7WrRITyIVnb</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="str">
+        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F3)</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=1OYsOoojlBToCdrTFbeaAwrVod1KOz2Vo</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="str">
+        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F4)</f>
+        <v>https://drive.google.com/uc?export=view&amp;id=14viKK9_QAxCJ4MAlqi2Zha-uv7TAIVdX</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/rooftop-runners.xlsx
+++ b/rooftop-runners.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auto1\go\src\github.com\eejai42\roast-and-toast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9237F90-EB26-4423-B572-D78FE8BB58B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C94623-9713-469D-BB05-1D396D51CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -51,45 +51,18 @@
     <t>Nunchaku</t>
   </si>
   <si>
-    <t>Kunai</t>
-  </si>
-  <si>
     <t>Shuriken</t>
   </si>
   <si>
-    <t>Kusarigama</t>
-  </si>
-  <si>
     <t>A traditional Japanese sword known for its sharpness and strength, used by samurai and ninjas.</t>
   </si>
   <si>
     <t>A martial arts weapon consisting of two sticks connected by a short chain or rope, used for striking and entangling.</t>
   </si>
   <si>
-    <t>A tool originally meant for farming, but adapted by ninjas as a multi-purpose weapon, commonly used for throwing and stabbing.</t>
-  </si>
-  <si>
     <t>A star-shaped throwing weapon that ninjas used for distraction and at a distance to harm enemies.</t>
   </si>
   <si>
-    <t>A weapon consisting of a sickle attached to a chain, allowing for both close and ranged attacks.</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/6/6f/Katana-Dresden.jpg</t>
-  </si>
-  <si>
-    <t>https://i.ebayimg.com/images/g/NaQAAOSwfjZm2AdC/s-l1600.webp</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/d/d1/Kunai05.jpg</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/9/95/Shaken.JPG</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/commons/6/68/Kusarigama-crop.jpg</t>
-  </si>
-  <si>
     <t>Level Number</t>
   </si>
   <si>
@@ -132,10 +105,28 @@
     <t>1ydQbxC2yyHlFfpcNYEK4n7WrRITyIVnb</t>
   </si>
   <si>
-    <t>LocationUrl</t>
-  </si>
-  <si>
     <t>GoogleKey</t>
+  </si>
+  <si>
+    <t>ImageURL</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/skyline.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/underground.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/train.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/katana.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/nunchuku.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/shaken.png</t>
   </si>
 </sst>
 </file>
@@ -532,9 +523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -552,10 +550,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,10 +561,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,42 +572,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -618,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,82 +612,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="str">
-        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F2)</f>
-        <v>https://drive.google.com/uc?export=view&amp;id=1ydQbxC2yyHlFfpcNYEK4n7WrRITyIVnb</v>
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="str">
-        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F3)</f>
-        <v>https://drive.google.com/uc?export=view&amp;id=1OYsOoojlBToCdrTFbeaAwrVod1KOz2Vo</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="str">
-        <f>CONCATENATE("https://drive.google.com/uc?export=view&amp;id=",F4)</f>
-        <v>https://drive.google.com/uc?export=view&amp;id=14viKK9_QAxCJ4MAlqi2Zha-uv7TAIVdX</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{013DD7B1-9A18-4328-B115-3A0943E77326}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{40C4D85B-6630-459A-8AB7-B70B4745F761}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/rooftop-runners.xlsx
+++ b/rooftop-runners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\auto1\go\src\github.com\eejai42\roast-and-toast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C94623-9713-469D-BB05-1D396D51CC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4836CCE-D619-4563-A408-AA123FB191D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Image URL</t>
-  </si>
-  <si>
     <t>Katana</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>A star-shaped throwing weapon that ninjas used for distraction and at a distance to harm enemies.</t>
   </si>
   <si>
-    <t>Level Number</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -93,9 +87,6 @@
     <t>Underground</t>
   </si>
   <si>
-    <t>City Train</t>
-  </si>
-  <si>
     <t>1OYsOoojlBToCdrTFbeaAwrVod1KOz2Vo</t>
   </si>
   <si>
@@ -111,22 +102,28 @@
     <t>ImageURL</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/skyline.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/underground.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/train.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/katana.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/nunchuku.png</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/shaken.png</t>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/katana.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/shaken.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/skybound.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/underground.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/train.png</t>
+  </si>
+  <si>
+    <t>LevelNumber</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/eejai42/roast-and-toast/refs/heads/master/images/nunchaku.png</t>
   </si>
 </sst>
 </file>
@@ -524,14 +521,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,26 +539,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>29</v>
@@ -569,19 +566,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{06523296-45C6-4245-AE8A-94450C679336}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{53E19503-7B6A-4663-A935-C34EFEDF25E7}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F1AE7874-F8ED-42C6-A779-EF700F3EFC45}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -590,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,82 +614,83 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{013DD7B1-9A18-4328-B115-3A0943E77326}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{40C4D85B-6630-459A-8AB7-B70B4745F761}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{C678C0C0-AEDB-4978-90A5-089CB9C7D9D2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
